--- a/SAP Demo/TestCases/EditPO_TestData.xlsx
+++ b/SAP Demo/TestCases/EditPO_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hkfr gitlab\perm-data3\study - IT\UiPath\SAP Demo\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04918BF8-183D-4B71-AC00-21BB48C9B6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F79690-8AFD-4EC2-B23E-558DBA27DD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>in_NewQuantity</t>
   </si>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -397,6 +397,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -411,23 +414,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
